--- a/TestData2.xlsx
+++ b/TestData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgajdosz\Documents\bench learning\Selenium - training\GIT\v6 - reports\PHP-TRAVEL-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B9300DD-49E6-462B-9BE1-94E8CC6DF0FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B7BEF82-4802-4FBB-AB9D-24C913A09BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34500" yWindow="3585" windowWidth="17445" windowHeight="10500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>test data id</t>
   </si>
@@ -69,12 +69,6 @@
     <t>phone</t>
   </si>
   <si>
-    <t>Test1@test1.te1</t>
-  </si>
-  <si>
-    <t>Tes2@test2.te2</t>
-  </si>
-  <si>
     <t>Adam</t>
   </si>
   <si>
@@ -117,16 +111,16 @@
     <t>00000</t>
   </si>
   <si>
-    <t>Lo1@test1.te1</t>
-  </si>
-  <si>
-    <t>Log2@test2.te2</t>
-  </si>
-  <si>
-    <t>LogA</t>
-  </si>
-  <si>
-    <t>LogB</t>
+    <t>Lo1@test1.t23e1</t>
+  </si>
+  <si>
+    <t>Log2@test2.twewe2</t>
+  </si>
+  <si>
+    <t>Teqwest1@test1.te1</t>
+  </si>
+  <si>
+    <t>Teqwes2@test2.te2</t>
   </si>
 </sst>
 </file>
@@ -502,7 +496,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:K3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -552,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
       <c r="E2">
         <v>345345</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -587,34 +581,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
       <c r="E3">
         <v>345345</v>
       </c>
       <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
       <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -631,10 +625,15 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -644,102 +643,41 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="C2">
         <v>345345</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="I2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3">
+        <v>26</v>
+      </c>
+      <c r="C3">
         <v>345345</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="I3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
